--- a/Bigmart Replenishment System/TestCase/BRS testcase.xlsx
+++ b/Bigmart Replenishment System/TestCase/BRS testcase.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Store Categories module" sheetId="1" r:id="rId1"/>
+    <sheet name="Stores module" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,119 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+  <si>
+    <t>Store Categories module</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Verify that the user can add new store categories.</t>
+  </si>
+  <si>
+    <t>Click on "Add Store Categories" button.</t>
+  </si>
+  <si>
+    <t>Fill the "Category name" and click on save</t>
+  </si>
+  <si>
+    <t>Verify that the user can edit the Categories in the list.</t>
+  </si>
+  <si>
+    <t>Click on "Edit" button of a specific category in the action Column.</t>
+  </si>
+  <si>
+    <t>Edit the required fields.</t>
+  </si>
+  <si>
+    <t>Click on the "Update" button.</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete the category from the list.</t>
+  </si>
+  <si>
+    <t>click on the "Delete" button of a specific category in the action Column.</t>
+  </si>
+  <si>
+    <t>click "OK" on the confirmation pop up.</t>
+  </si>
+  <si>
+    <t>i) user must be logged in
+ii) user should be in Store Category page. </t>
+  </si>
+  <si>
+    <t>Stores Module</t>
+  </si>
+  <si>
+    <t>verify that the categories added are appearing in "add store of "edit store" option</t>
+  </si>
+  <si>
+    <t>i) user must be logged in
+ii) user should be in store page</t>
+  </si>
+  <si>
+    <t>click on the Category field.</t>
+  </si>
+  <si>
+    <t>click on the "add store" option</t>
+  </si>
+  <si>
+    <t>all the categories added in the "store category" section should be there in the category field drop down.</t>
+  </si>
+  <si>
+    <t>Verify that the user can add new stores.</t>
+  </si>
+  <si>
+    <t>i) user must be logged in
+ii) user should be in "Store" page. </t>
+  </si>
+  <si>
+    <t>click on "Add Store" button.</t>
+  </si>
+  <si>
+    <t>click "Save" button.</t>
+  </si>
+  <si>
+    <t>Fill up all the required fields in the form with valid data.</t>
+  </si>
+  <si>
+    <t>The added store should appear in the store list in the "store" page.</t>
+  </si>
+  <si>
+    <t>Add Store Form</t>
+  </si>
+  <si>
+    <t>verify that no two stores can have same Overall Ranking</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +139,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +175,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +548,1392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>